--- a/Data/SRS Dataset/SRS Document Links.xlsx
+++ b/Data/SRS Dataset/SRS Document Links.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USC\CSCI 544 NLP\project\NLP-project\Data\SRS Dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20EE071C-9166-43C0-AE7B-24C326454E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
   <si>
     <t>Number</t>
   </si>
@@ -124,9 +133,6 @@
     <t>SRS10</t>
   </si>
   <si>
-    <t>SMPP-gateway software manual</t>
-  </si>
-  <si>
     <t>SRS11</t>
   </si>
   <si>
@@ -136,12 +142,6 @@
     <t>SRS12</t>
   </si>
   <si>
-    <t>https://www.edsd.com/files/pdf/Mobile-Application-Flow-Chart.pdf</t>
-  </si>
-  <si>
-    <t>App Linking to mobile devices</t>
-  </si>
-  <si>
     <t>SRS13</t>
   </si>
   <si>
@@ -494,42 +494,68 @@
   </si>
   <si>
     <t>Pedestrian Backup Assist System</t>
+  </si>
+  <si>
+    <t>Quality Analysis Report Automation (QARA)</t>
+  </si>
+  <si>
+    <t>http://cse.msu.edu/~weberja4/cse435/SRS_documentV2.pdf</t>
+  </si>
+  <si>
+    <t>Book E-Commerce System (BECS)</t>
+  </si>
+  <si>
+    <t>https://www.cse.msu.edu/~chengb/RE-491/Papers/SRS-BECS-2007.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -537,7 +563,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -547,48 +573,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -778,20 +806,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +863,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -847,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -861,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -875,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -892,7 +925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -909,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -926,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -940,7 +973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -954,7 +987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -968,638 +1001,637 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
+      <c r="C11" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="C13" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="6" t="s">
+      <c r="E28" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="E29" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="E30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="E31" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="E32" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="E33" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="E34" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="E35" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="E36" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
+      <c r="E37" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
+      <c r="E38" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
+      <c r="E39" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
+      <c r="E40" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
+      <c r="E41" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
+      <c r="E42" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="s">
+      <c r="E43" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
+      <c r="E44" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E45" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E46" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="s">
+      <c r="C47" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
+      <c r="E47" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="D48" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E48" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
+      <c r="E49" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="s">
+      <c r="E50" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="C6"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C8"/>
-    <hyperlink r:id="rId8" ref="C9"/>
-    <hyperlink r:id="rId9" ref="C10"/>
-    <hyperlink r:id="rId10" ref="C11"/>
-    <hyperlink r:id="rId11" ref="C12"/>
-    <hyperlink r:id="rId12" ref="C13"/>
-    <hyperlink r:id="rId13" ref="C14"/>
-    <hyperlink r:id="rId14" ref="C15"/>
-    <hyperlink r:id="rId15" ref="C16"/>
-    <hyperlink r:id="rId16" ref="C17"/>
-    <hyperlink r:id="rId17" ref="C18"/>
-    <hyperlink r:id="rId18" ref="C19"/>
-    <hyperlink r:id="rId19" ref="C20"/>
-    <hyperlink r:id="rId20" ref="C21"/>
-    <hyperlink r:id="rId21" ref="C22"/>
-    <hyperlink r:id="rId22" ref="C23"/>
-    <hyperlink r:id="rId23" ref="C24"/>
-    <hyperlink r:id="rId24" ref="C25"/>
-    <hyperlink r:id="rId25" ref="C26"/>
-    <hyperlink r:id="rId26" ref="C28"/>
-    <hyperlink r:id="rId27" ref="C29"/>
-    <hyperlink r:id="rId28" ref="C30"/>
-    <hyperlink r:id="rId29" ref="C31"/>
-    <hyperlink r:id="rId30" ref="C32"/>
-    <hyperlink r:id="rId31" ref="C33"/>
-    <hyperlink r:id="rId32" ref="C34"/>
-    <hyperlink r:id="rId33" ref="C35"/>
-    <hyperlink r:id="rId34" ref="C36"/>
-    <hyperlink r:id="rId35" ref="C37"/>
-    <hyperlink r:id="rId36" ref="C38"/>
-    <hyperlink r:id="rId37" ref="C39"/>
-    <hyperlink r:id="rId38" ref="C40"/>
-    <hyperlink r:id="rId39" ref="C41"/>
-    <hyperlink r:id="rId40" ref="C42"/>
-    <hyperlink r:id="rId41" ref="C43"/>
-    <hyperlink r:id="rId42" ref="C44"/>
-    <hyperlink r:id="rId43" ref="C47"/>
-    <hyperlink r:id="rId44" ref="C49"/>
-    <hyperlink r:id="rId45" ref="C50"/>
-    <hyperlink r:id="rId46" ref="C51"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C47" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
   </hyperlinks>
-  <drawing r:id="rId47"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/SRS Dataset/SRS Document Links.xlsx
+++ b/Data/SRS Dataset/SRS Document Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USC\CSCI 544 NLP\project\NLP-project\Data\SRS Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20EE071C-9166-43C0-AE7B-24C326454E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B104CC6F-5C9B-4776-BF38-5D3927B21A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="163">
   <si>
     <t>Number</t>
   </si>
@@ -211,12 +211,6 @@
     <t>SRS20</t>
   </si>
   <si>
-    <t>https://www.ipds.gov.in/Model_Documents/SRS_Document.pdf</t>
-  </si>
-  <si>
-    <t>Restructured ARDRP</t>
-  </si>
-  <si>
     <t>SRS21</t>
   </si>
   <si>
@@ -506,6 +500,15 @@
   </si>
   <si>
     <t>https://www.cse.msu.edu/~chengb/RE-491/Papers/SRS-BECS-2007.pdf</t>
+  </si>
+  <si>
+    <t>https://docplayer.net/53311202-Software-requirement-specification-srs-for-online-shopping-system-oss.html</t>
+  </si>
+  <si>
+    <t>NERS</t>
+  </si>
+  <si>
+    <t>https://senior.ceng.metu.edu.tr/2016/codewhisperers/documents/SRS.pdf</t>
   </si>
 </sst>
 </file>
@@ -818,8 +821,8 @@
   </sheetPr>
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H21" activeCellId="1" sqref="C21 H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1006,10 +1009,10 @@
         <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
@@ -1020,7 +1023,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>38</v>
@@ -1033,11 +1036,11 @@
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>161</v>
+      <c r="C13" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>9</v>
@@ -1149,10 +1152,10 @@
         <v>62</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
@@ -1160,13 +1163,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>9</v>
@@ -1174,13 +1177,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
@@ -1188,13 +1191,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>9</v>
@@ -1202,16 +1205,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
@@ -1219,16 +1222,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>9</v>
@@ -1236,13 +1239,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>9</v>
@@ -1250,338 +1253,338 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E47" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="E51" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1596,41 +1599,40 @@
     <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C47" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C42" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C43" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C44" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C49" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C50" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C13" r:id="rId44" xr:uid="{ED0B7B38-BD7B-42AC-BDD6-35D09286A336}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
